--- a/database/data/names.xlsx
+++ b/database/data/names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\GitHub\aromatica\database\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kali\Projects\aromatica\database\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF79294-2FAC-4707-A6B8-DDD86566598C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A78A92-6A26-4088-916A-40FC2C00DAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="2280" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -8587,8 +8587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR562"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K165" sqref="K165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
